--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A01D46-2EA3-45C8-8832-8E9FD6F0440C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7996AEE-48EF-4712-A468-811A6FAA8F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" firstSheet="4" activeTab="11" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="6" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_11_Bird" sheetId="2" r:id="rId1"/>
@@ -20,11 +20,6 @@
     <sheet name="S04_1_Festival" sheetId="6" r:id="rId5"/>
     <sheet name="S05_2_Home" sheetId="7" r:id="rId6"/>
     <sheet name="S06_3_Restroom" sheetId="8" r:id="rId7"/>
-    <sheet name="S07_4_Ayaka" sheetId="9" r:id="rId8"/>
-    <sheet name="S08_41_Minatsu" sheetId="10" r:id="rId9"/>
-    <sheet name="S09_42_Hina" sheetId="11" r:id="rId10"/>
-    <sheet name="S10_43_Ayaka" sheetId="12" r:id="rId11"/>
-    <sheet name="S11_4_Ayaka2" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="244">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +105,6 @@
   </si>
   <si>
     <t>choiceLoop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나레이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2045,155 +2036,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(머리가 지끈지끈하다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(눈을 감은 동안 내가 어떻게 되었는지는 알 수 없지만,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(맞은 곳이 화끈화끈하고 뱃속 깊이 긴장감이 태동해)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(온통 지끈거리는 고통만이 남아 있다는 것은 알 수 있었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>천천히</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>눈을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>떴다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pretendard"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈 뜨는 연출 (기존)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(고개를 들자, 아야카가 나를 바라보고 있었다.)</t>
-  </si>
-  <si>
-    <t>안녕, 내 사랑.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아야카</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PLAYER_NAME}} 님, 일어나셨어요?</t>
-  </si>
-  <si>
-    <t>(보기 싫었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(정확히는, 압도적인 공포감으로 바라볼 수 없었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(나는 말없이 주변을 두리번거렸다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(벽면에는 온통 내 사진이 붙어 있었고,)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(내 등 뒤에는…....)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(카메라 전환, {{PLAYER_NAME}}의 뒤)</t>
-  </si>
-  <si>
-    <t>(뒤에는 알 수 없는 시체가 놓여 있었다.)</t>
+    <t>{MI01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA02}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{KI05}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{KI02}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA00}{MI00}{KI00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround_Festival</t>
+  </si>
+  <si>
+    <t>{KI00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{KI04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{KI11}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround_Living</t>
+  </si>
+  <si>
+    <t>{KI00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{KI04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KI03</t>
+  </si>
+  <si>
+    <t>BackGround_Bathroom</t>
+  </si>
+  <si>
+    <t>DA01</t>
+  </si>
+  <si>
+    <t>{KI10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{KI08}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{KI07}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{KI09}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PLAYER_NAME}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2279,18 +2197,12 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -2414,7 +2326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2478,21 +2390,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <fill>
         <patternFill>
@@ -2511,6 +2419,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2559,13 +2474,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2581,6 +2489,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2629,13 +2544,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2651,6 +2559,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2699,13 +2614,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2721,6 +2629,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2769,13 +2684,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2797,7 +2705,35 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2839,13 +2775,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2867,70 +2796,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2959,20 +2825,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3043,6 +2895,27 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3398,8 +3271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2492B5-5286-4C51-A0EE-617DAAF7402C}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3407,10 +3280,10 @@
     <col min="1" max="1" width="11.3984375" customWidth="1"/>
     <col min="3" max="3" width="9.8984375" customWidth="1"/>
     <col min="4" max="4" width="7.296875" customWidth="1"/>
-    <col min="5" max="5" width="18.296875" customWidth="1"/>
-    <col min="6" max="6" width="86.69921875" customWidth="1"/>
-    <col min="7" max="7" width="24.3984375" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="47.796875" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="15.8984375" customWidth="1"/>
     <col min="10" max="10" width="13.796875" customWidth="1"/>
     <col min="11" max="11" width="12.796875" customWidth="1"/>
@@ -3470,94 +3343,235 @@
       </c>
     </row>
     <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="25.8" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="25.8" customHeight="1">
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="31.2" customHeight="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="31.2" customHeight="1">
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="25.8" customHeight="1">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="25.8" customHeight="1">
-      <c r="E5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="E6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="E7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="28.2" customHeight="1">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="28.2" customHeight="1">
-      <c r="E8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="E10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="E11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="E12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>29</v>
+      <c r="G12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:16">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
     </row>
@@ -3780,117 +3794,73 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="84" priority="14" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="78" priority="14" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="16" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="77" priority="16" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="82" priority="11" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="12" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="75" priority="12" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="13" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="74" priority="13" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E12">
+    <cfRule type="containsText" dxfId="73" priority="2" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E67">
+    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E13:E67">
-    <cfRule type="containsText" dxfId="79" priority="6" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="7" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="68" priority="8" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="10" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="66" priority="10" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E12">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72E61EF-A1FE-4C4A-A059-E348AF531A65}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8710DCA4-8DD9-4BB2-98DD-6F8AE7D2E50B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4969D6-AB58-473B-ABA1-436D7DA206FC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB6832A-6597-4EBE-A642-50EFC6AE260A}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
+    <col min="4" max="4" width="6.3984375" customWidth="1"/>
     <col min="5" max="5" width="16.09765625" customWidth="1"/>
     <col min="6" max="6" width="57.69921875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3944,136 +3914,302 @@
       </c>
     </row>
     <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="E7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="E8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="E10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="E11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="E12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="E13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>42</v>
+      <c r="G13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="74" priority="9" operator="containsText" text="1">
+  <conditionalFormatting sqref="A1:A14">
+    <cfRule type="containsText" dxfId="65" priority="4" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="62" priority="14" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="8" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="containsText" dxfId="60" priority="1" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="2" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="2" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="55" priority="10" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="4" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4083,16 +4219,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4D3827-FA20-492E-9CAA-498828664590}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="15.3984375" customWidth="1"/>
     <col min="6" max="6" width="52.796875" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4146,152 +4284,342 @@
       </c>
     </row>
     <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="E5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="E7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="E8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="E10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="E11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="E12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="E13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="E14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="E15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>57</v>
+      <c r="G15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="69" priority="9" operator="containsText" text="1">
+  <conditionalFormatting sqref="A1:A16">
+    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="67" priority="6" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="49" priority="14" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="8" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2:E15">
-    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="42" priority="10" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="40" priority="12" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4301,16 +4629,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E2E5F-C23B-4F25-A39B-FF9BDCB35635}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="14.09765625" customWidth="1"/>
-    <col min="6" max="6" width="66" customWidth="1"/>
+    <col min="6" max="6" width="90" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4363,526 +4693,503 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26.4">
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="6" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="G4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="G5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="26.4">
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="E6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="G7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="E7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="G8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="E8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="G9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="G10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="G11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="G12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="G13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G14" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="26.4">
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="G15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="26.4">
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="G16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="E16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="G17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="G18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="G19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="G20" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="G21" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="G22" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="G23" t="s">
+        <v>229</v>
+      </c>
+      <c r="H23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="5:6" ht="26.4">
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="G24" t="s">
+        <v>229</v>
+      </c>
+      <c r="H24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="G25" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="49" priority="9" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="10" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="47" priority="6" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="8" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E25">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57870A9-ECB4-4291-BFAF-986814B662D2}">
-  <dimension ref="A1:P29"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q1" sqref="A1:Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="5" max="5" width="11.296875" customWidth="1"/>
-    <col min="6" max="6" width="64.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G26" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="26.4">
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="26.4">
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="26.4">
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="26.4">
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="26.4">
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" ht="26.4">
-      <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" ht="39.6">
-      <c r="E20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" ht="26.4">
-      <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6">
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6">
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6">
-      <c r="E29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4906,39 +5213,41 @@
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E3:E26">
     <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DD822B-AB3F-4083-911C-110C08E3FDA4}">
-  <dimension ref="A1:P38"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57870A9-ECB4-4291-BFAF-986814B662D2}">
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="55.5" customWidth="1"/>
+    <col min="6" max="6" width="76.69921875" customWidth="1"/>
+    <col min="7" max="7" width="19.69921875" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4992,299 +5301,555 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>108</v>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>109</v>
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>110</v>
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>111</v>
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>112</v>
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="26.4">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>114</v>
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>115</v>
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="26.4">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>117</v>
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:16">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>118</v>
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="26.4">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:16">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>121</v>
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="E16" s="17" t="s">
-        <v>17</v>
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="17" t="s">
-        <v>17</v>
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="17" t="s">
-        <v>17</v>
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="17" t="s">
-        <v>17</v>
+        <v>94</v>
+      </c>
+      <c r="G18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="26.4">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" ht="26.4">
+        <v>46</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" ht="26.4">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>229</v>
+      </c>
+      <c r="H23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6">
+        <v>13</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>229</v>
+      </c>
+      <c r="H24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6">
+        <v>13</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6">
+        <v>13</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>229</v>
+      </c>
+      <c r="H27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6">
+        <v>13</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" ht="26.4">
-      <c r="E30" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" t="s">
+        <v>229</v>
+      </c>
+      <c r="H29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6">
-      <c r="E31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6">
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6">
-      <c r="E33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6">
-      <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6">
-      <c r="E35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6">
-      <c r="E36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="E37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" ht="26.4">
-      <c r="E38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>144</v>
+        <v>106</v>
+      </c>
+      <c r="G30" t="s">
+        <v>229</v>
+      </c>
+      <c r="H30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5308,39 +5873,41 @@
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E38">
+  <conditionalFormatting sqref="E3:E30">
     <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1151488-0F44-491C-8515-0B5CDD067839}">
-  <dimension ref="A1:P85"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DD822B-AB3F-4083-911C-110C08E3FDA4}">
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="68.8984375" customWidth="1"/>
+    <col min="6" max="6" width="55.5" customWidth="1"/>
+    <col min="7" max="7" width="22.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -5394,673 +5961,663 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="26.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>146</v>
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="26.4">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>148</v>
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
+      </c>
+      <c r="G7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:16">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>112</v>
+      </c>
+      <c r="G8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="26.4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="26.4">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>150</v>
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="26.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="26.4">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>153</v>
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:16">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="26.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>155</v>
+        <v>119</v>
+      </c>
+      <c r="G15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>121</v>
+      </c>
+      <c r="G17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="1" t="s">
-        <v>17</v>
+      <c r="G18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" ht="29.4">
+        <v>125</v>
+      </c>
+      <c r="G21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6">
+        <v>126</v>
+      </c>
+      <c r="G22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="26.4">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6">
+        <v>127</v>
+      </c>
+      <c r="G23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="26.4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" ht="26.4">
+        <v>128</v>
+      </c>
+      <c r="G24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" ht="26.4">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6">
+        <v>130</v>
+      </c>
+      <c r="G26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6">
+        <v>131</v>
+      </c>
+      <c r="G27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6" ht="26.4">
+        <v>132</v>
+      </c>
+      <c r="G28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6">
+        <v>133</v>
+      </c>
+      <c r="G29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6">
-      <c r="E31" s="1" t="s">
-        <v>13</v>
+        <v>134</v>
+      </c>
+      <c r="G30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="26.4">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6">
+        <v>135</v>
+      </c>
+      <c r="G31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6">
+        <v>136</v>
+      </c>
+      <c r="G32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="26.4">
+        <v>137</v>
+      </c>
+      <c r="G33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6">
+        <v>138</v>
+      </c>
+      <c r="G34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6">
+        <v>139</v>
+      </c>
+      <c r="G35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6">
+        <v>13</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6">
+        <v>13</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="26.4">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6">
-      <c r="E40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6">
-      <c r="E41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6">
-      <c r="E42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6">
-      <c r="E43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6">
-      <c r="E44" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6">
-      <c r="E45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6">
-      <c r="E46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" ht="28.8">
-      <c r="E47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6">
-      <c r="E48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" ht="26.4">
-      <c r="E49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6">
-      <c r="E50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6">
-      <c r="E51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6">
-      <c r="E52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="5:6">
-      <c r="E53" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="5:6">
-      <c r="E54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6" ht="118.8">
-      <c r="E55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6">
-      <c r="E56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" spans="5:6">
-      <c r="E57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="5:6">
-      <c r="E58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="5:6">
-      <c r="E59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="5:6">
-      <c r="E60" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="61" spans="5:6">
-      <c r="E61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="5:6">
-      <c r="E62" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="5:6">
-      <c r="E63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="5:6" ht="26.4">
-      <c r="E64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6">
-      <c r="E65" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6">
-      <c r="E66" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6">
-      <c r="E67" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6">
-      <c r="E68" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="5:6">
-      <c r="E69" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6">
-      <c r="E70" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="5:6">
-      <c r="E71" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="5:6">
-      <c r="E72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6">
-      <c r="E73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="5:6">
-      <c r="E74" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="5:6">
-      <c r="E75" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="76" spans="5:6">
-      <c r="E76" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="5:6">
-      <c r="E77" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="78" spans="5:6" ht="79.2">
-      <c r="E78" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="5:6">
-      <c r="E79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="80" spans="5:6">
-      <c r="E80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="5:6" ht="158.4">
-      <c r="E81" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="5:6">
-      <c r="E82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="5:6">
-      <c r="E83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="84" spans="5:6">
-      <c r="E84" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="85" spans="5:6">
-      <c r="E85" s="1"/>
-      <c r="F85" s="6" t="s">
-        <v>223</v>
+        <v>13</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6084,39 +6641,44 @@
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E85 F43">
+  <conditionalFormatting sqref="E3:E39">
     <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919BE8DB-1A1A-4621-8D0A-A40F97974229}">
-  <dimension ref="A1:P17"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1151488-0F44-491C-8515-0B5CDD067839}">
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="12.59765625" customWidth="1"/>
-    <col min="6" max="6" width="64.19921875" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="6" max="6" width="73.5" customWidth="1"/>
+    <col min="7" max="7" width="21.3984375" customWidth="1"/>
+    <col min="8" max="8" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -6170,131 +6732,1654 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>224</v>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>13</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="26.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>226</v>
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>227</v>
+        <v>146</v>
+      </c>
+      <c r="G5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>228</v>
+        <v>147</v>
+      </c>
+      <c r="G6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>229</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:16">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>230</v>
+        <v>121</v>
+      </c>
+      <c r="G8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>231</v>
+        <v>121</v>
+      </c>
+      <c r="G9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>233</v>
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="26.4">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="26.4">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" t="s">
+        <v>237</v>
+      </c>
+      <c r="H32" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="6" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="21" t="s">
+      <c r="H33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" t="s">
+        <v>237</v>
+      </c>
+      <c r="H34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="26.4">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" t="s">
+        <v>237</v>
+      </c>
+      <c r="H35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" t="s">
+        <v>237</v>
+      </c>
+      <c r="H36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" t="s">
+        <v>237</v>
+      </c>
+      <c r="H37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" t="s">
+        <v>237</v>
+      </c>
+      <c r="H38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" t="s">
+        <v>237</v>
+      </c>
+      <c r="H39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" t="s">
+        <v>237</v>
+      </c>
+      <c r="H40" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" t="s">
+        <v>237</v>
+      </c>
+      <c r="H42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" t="s">
+        <v>237</v>
+      </c>
+      <c r="H43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44" t="s">
+        <v>237</v>
+      </c>
+      <c r="H44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G45" t="s">
+        <v>237</v>
+      </c>
+      <c r="H45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" t="s">
+        <v>237</v>
+      </c>
+      <c r="H46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" t="s">
+        <v>237</v>
+      </c>
+      <c r="H47" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" t="s">
+        <v>237</v>
+      </c>
+      <c r="H48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G49" t="s">
+        <v>237</v>
+      </c>
+      <c r="H49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G51" t="s">
+        <v>237</v>
+      </c>
+      <c r="H51" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" t="s">
+        <v>237</v>
+      </c>
+      <c r="H52" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G53" t="s">
+        <v>237</v>
+      </c>
+      <c r="H53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G54" t="s">
+        <v>237</v>
+      </c>
+      <c r="H54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G55" t="s">
+        <v>237</v>
+      </c>
+      <c r="H55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="118.8">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G56" t="s">
+        <v>237</v>
+      </c>
+      <c r="H56" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G57" t="s">
+        <v>237</v>
+      </c>
+      <c r="H57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" t="s">
+        <v>237</v>
+      </c>
+      <c r="H58" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G59" t="s">
+        <v>237</v>
+      </c>
+      <c r="H59" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="6" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" t="s">
+        <v>237</v>
+      </c>
+      <c r="H60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G61" t="s">
+        <v>237</v>
+      </c>
+      <c r="H61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G62" t="s">
+        <v>237</v>
+      </c>
+      <c r="H62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" t="s">
+        <v>237</v>
+      </c>
+      <c r="H63" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G64" t="s">
+        <v>237</v>
+      </c>
+      <c r="H64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G65" t="s">
+        <v>237</v>
+      </c>
+      <c r="H65" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G66" t="s">
+        <v>237</v>
+      </c>
+      <c r="H66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G67" t="s">
+        <v>237</v>
+      </c>
+      <c r="H67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G68" t="s">
+        <v>237</v>
+      </c>
+      <c r="H68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" t="s">
+        <v>237</v>
+      </c>
+      <c r="H69" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G70" t="s">
+        <v>237</v>
+      </c>
+      <c r="H70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G71" t="s">
+        <v>237</v>
+      </c>
+      <c r="H71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G72" t="s">
+        <v>237</v>
+      </c>
+      <c r="H72" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G73" t="s">
+        <v>237</v>
+      </c>
+      <c r="H73" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G74" t="s">
+        <v>237</v>
+      </c>
+      <c r="H74" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="G75" t="s">
+        <v>237</v>
+      </c>
+      <c r="H75" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G76" t="s">
+        <v>237</v>
+      </c>
+      <c r="H76" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G77" t="s">
+        <v>237</v>
+      </c>
+      <c r="H77" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" t="s">
+        <v>237</v>
+      </c>
+      <c r="H78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="52.8">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G79" t="s">
+        <v>237</v>
+      </c>
+      <c r="H79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G80" t="s">
+        <v>237</v>
+      </c>
+      <c r="H80" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G81" t="s">
+        <v>237</v>
+      </c>
+      <c r="H81" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="105.6">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G82" t="s">
+        <v>237</v>
+      </c>
+      <c r="H82" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G83" t="s">
+        <v>237</v>
+      </c>
+      <c r="H83" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G84" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="G85" t="s">
+        <v>237</v>
+      </c>
+      <c r="H85" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="P87">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6318,36 +8403,23 @@
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E17">
+  <conditionalFormatting sqref="F44 E3:E86">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15505E24-C412-4959-9E6F-F3C0364FCA02}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7996AEE-48EF-4712-A468-811A6FAA8F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724B2BFE-402D-4270-A3F6-ACB59A6A0CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="6" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="3" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_11_Bird" sheetId="2" r:id="rId1"/>
@@ -2326,7 +2326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2390,17 +2390,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="76">
     <dxf>
       <fill>
         <patternFill>
@@ -2866,27 +2860,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="3" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
@@ -3272,7 +3245,7 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3344,22 +3317,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" t="s">
-        <v>223</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="25.8" customHeight="1">
@@ -3373,7 +3334,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>229</v>
@@ -3387,13 +3348,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>229</v>
@@ -3407,13 +3368,13 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>229</v>
@@ -3427,13 +3388,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>229</v>
@@ -3453,7 +3414,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>229</v>
@@ -3467,13 +3428,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>229</v>
@@ -3493,7 +3454,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
         <v>229</v>
@@ -3513,7 +3474,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>229</v>
@@ -3527,13 +3488,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>229</v>
@@ -3553,7 +3514,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
         <v>229</v>
@@ -3564,18 +3525,34 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:16">
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
     </row>
@@ -3793,53 +3770,42 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="78" priority="14" operator="containsText" text="1">
+  <conditionalFormatting sqref="A3:A1048576 A1">
+    <cfRule type="containsText" dxfId="75" priority="14" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="16" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="74" priority="16" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="2">
+  <conditionalFormatting sqref="D3:D1048576 D1">
+    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="12" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="72" priority="12" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="13" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E12">
-    <cfRule type="containsText" dxfId="73" priority="2" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+  <conditionalFormatting sqref="E3:E67">
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
+    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E67">
-    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+  <conditionalFormatting sqref="E3:E67">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="4" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E67">
-    <cfRule type="containsText" dxfId="68" priority="8" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="10" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E13)))</formula>
+    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3848,10 +3814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB6832A-6597-4EBE-A642-50EFC6AE260A}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3915,22 +3881,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" t="s">
-        <v>224</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3944,7 +3898,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>229</v>
@@ -3964,7 +3918,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
         <v>229</v>
@@ -3978,13 +3932,13 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
         <v>229</v>
@@ -3998,13 +3952,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>229</v>
@@ -4024,7 +3978,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>229</v>
@@ -4044,7 +3998,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
         <v>229</v>
@@ -4064,7 +4018,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
         <v>229</v>
@@ -4084,13 +4038,13 @@
         <v>13</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
         <v>229</v>
       </c>
       <c r="H10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4098,13 +4052,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>229</v>
@@ -4118,13 +4072,13 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
         <v>229</v>
@@ -4144,7 +4098,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
         <v>229</v>
@@ -4155,18 +4109,38 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A14">
+  <conditionalFormatting sqref="A1 A3:A15">
     <cfRule type="containsText" dxfId="65" priority="4" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
@@ -4185,32 +4159,32 @@
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="D15">
     <cfRule type="containsText" dxfId="60" priority="1" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("2",D15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="59" priority="2" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1",D15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E13">
+  <conditionalFormatting sqref="E3:E14">
     <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="55" priority="10" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4219,10 +4193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4D3827-FA20-492E-9CAA-498828664590}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4285,22 +4259,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" t="s">
-        <v>226</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4314,7 +4276,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>229</v>
@@ -4334,7 +4296,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
         <v>229</v>
@@ -4354,7 +4316,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>229</v>
@@ -4368,13 +4330,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>229</v>
@@ -4388,13 +4350,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>229</v>
@@ -4408,13 +4370,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
         <v>229</v>
@@ -4428,13 +4390,13 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
         <v>229</v>
@@ -4454,7 +4416,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
         <v>229</v>
@@ -4468,19 +4430,19 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>229</v>
       </c>
       <c r="H11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4493,14 +4455,14 @@
       <c r="E12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>53</v>
+      <c r="F12" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="G12" t="s">
         <v>229</v>
       </c>
       <c r="H12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4513,8 +4475,8 @@
       <c r="E13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>54</v>
+      <c r="F13" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>229</v>
@@ -4528,13 +4490,13 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>229</v>
@@ -4553,8 +4515,8 @@
       <c r="E15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>56</v>
+      <c r="F15" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G15" t="s">
         <v>229</v>
@@ -4565,18 +4527,38 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A16">
+  <conditionalFormatting sqref="A1 A3:A17">
     <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
@@ -4595,32 +4577,32 @@
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D17">
     <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("2",D17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1",D17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E15">
+  <conditionalFormatting sqref="E3:E16">
     <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="10" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="12" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4631,8 +4613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E2E5F-C23B-4F25-A39B-FF9BDCB35635}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6076,7 +6058,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26.4">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6127,7 +6109,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="26.4">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6337,7 +6319,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="26.4">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6456,7 +6438,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="26.4">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>1</v>
       </c>
@@ -6666,7 +6648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1151488-0F44-491C-8515-0B5CDD067839}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
@@ -6756,7 +6738,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="26.4">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7092,7 +7074,7 @@
       <c r="F23" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7109,7 +7091,7 @@
       <c r="F24" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7126,11 +7108,11 @@
       <c r="F25" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="26.4">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7147,7 +7129,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="26.4">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7292,7 +7274,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="26.4">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>1</v>
       </c>
@@ -7757,7 +7739,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="118.8">
+    <row r="56" spans="1:8" ht="92.4">
       <c r="A56">
         <v>1</v>
       </c>
@@ -8217,7 +8199,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="52.8">
+    <row r="79" spans="1:8" ht="39.6">
       <c r="A79">
         <v>1</v>
       </c>
@@ -8403,7 +8385,7 @@
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44 E3:E86">
+  <conditionalFormatting sqref="E3:E86 F44">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724B2BFE-402D-4270-A3F6-ACB59A6A0CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1E426C-7712-4BE2-8B72-E572BF744035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="3" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="5" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_11_Bird" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="244">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2860,21 +2860,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2889,6 +2882,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3770,7 +3770,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A1048576 A1">
+  <conditionalFormatting sqref="A1 A3:A1048576">
     <cfRule type="containsText" dxfId="75" priority="14" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
@@ -3778,7 +3778,7 @@
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D1048576 D1">
+  <conditionalFormatting sqref="D1 D3:D1048576">
     <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
@@ -3790,22 +3790,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E67">
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="2" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E67">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4613,7 +4611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E2E5F-C23B-4F25-A39B-FF9BDCB35635}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -5880,8 +5878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DD822B-AB3F-4083-911C-110C08E3FDA4}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6200,7 +6198,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6217,7 +6215,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6234,7 +6232,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6251,7 +6249,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6268,7 +6266,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6285,7 +6283,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6302,7 +6300,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="26.4">
+    <row r="23" spans="1:8" ht="26.4">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6319,7 +6317,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6336,7 +6334,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6353,7 +6351,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1</v>
       </c>
@@ -6370,7 +6368,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>1</v>
       </c>
@@ -6387,7 +6385,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6404,7 +6402,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6420,8 +6418,11 @@
       <c r="G29" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6437,8 +6438,11 @@
       <c r="G30" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>1</v>
       </c>
@@ -6454,8 +6458,11 @@
       <c r="G31" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>1</v>
       </c>
@@ -6470,6 +6477,9 @@
       </c>
       <c r="G32" t="s">
         <v>233</v>
+      </c>
+      <c r="H32" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:7">

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadi2\OneDrive\문서\카카오톡 받은 파일\스크립트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1E426C-7712-4BE2-8B72-E572BF744035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C129FE9-C471-474E-9121-8FD1FB5893B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="5" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" tabRatio="760" activeTab="6" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_11_Bird" sheetId="2" r:id="rId1"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>응. 인형 가지고 싶어 했잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>….... {{PLAYER_NAME}} 님…..</t>
   </si>
   <si>
@@ -316,10 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일단 전체적으로 한 번 둘러 보려고 해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래, 그럼. 다들 사람도 많으니까 몸 조심하도록 해. 알겠지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,9 +395,6 @@
   </si>
   <si>
     <t>사실, {{PLAYER_NAME}} 님을 위해서 준비한 게 있거든요.</t>
-  </si>
-  <si>
-    <t>부모님이 안 계시는 틈을 타서….... 저희 집에서, {{PLAYER_NAME}} 님을 위해 다 같이 준비한 게 있어요.</t>
   </si>
   <si>
     <t>시간이 더 늦을 것 같아서 나머지 분들은 저희 집에 가 계세요.</t>
@@ -816,10 +805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(다리가 제 멋대로 무너지는 탓에 머리가 욕조의 테두리를 맞고 바닥에 그대로 쓰러졌다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(일어나야 하는데.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -990,10 +975,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(욕조에서 물이 흘러 넘친 것인지, 비린 맛이 나는 물이 내 얼굴과 어깨를 적셨다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>생각보다 오래 버티고 계셨네요…...</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1003,10 +984,6 @@
   </si>
   <si>
     <t>너무 멋있어요…....</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 잠에 들지 않으면 곤란한 걸요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2112,6 +2089,30 @@
   </si>
   <si>
     <t>{{PLAYER_NAME}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응. 인형 가지고 싶어했잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 전체적으로 한 번 둘러보려고 해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모님이 안 계시는 틈을 타서….... 저희 집에서, {{PLAYER_NAME}} 님을 위해 다같이 준비한 게 있어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(다리가 제멋대로 무너지는 탓에 머리가 욕조의 테두리를 맞고 바닥에 그대로 쓰러졌다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(욕조에서 물이 흘러넘친 것인지, 비린 맛이 나는 물이 내 얼굴과 어깨를 적셨다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 잠에 들지 않으면 곤란한걸요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2946,9 +2947,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2986,7 +2987,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3092,7 +3093,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3234,7 +3235,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3245,24 +3246,24 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" customWidth="1"/>
-    <col min="4" max="4" width="7.296875" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" customWidth="1"/>
-    <col min="6" max="6" width="47.796875" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="47.75" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="15.8984375" customWidth="1"/>
-    <col min="10" max="10" width="13.796875" customWidth="1"/>
-    <col min="11" max="11" width="12.796875" customWidth="1"/>
-    <col min="12" max="12" width="14.19921875" customWidth="1"/>
-    <col min="13" max="13" width="16.3984375" customWidth="1"/>
-    <col min="14" max="14" width="15.796875" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3323,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.8" customHeight="1">
+    <row r="3" spans="1:16" ht="25.85" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3337,10 +3338,10 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="31.2" customHeight="1">
@@ -3357,13 +3358,13 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="25.8" customHeight="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="25.85" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3377,10 +3378,10 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3391,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -3417,10 +3418,10 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="28.2" customHeight="1">
@@ -3437,13 +3438,13 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="29.95" customHeight="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3457,10 +3458,10 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3477,10 +3478,10 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3497,10 +3498,10 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3517,10 +3518,10 @@
         <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3537,10 +3538,10 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3815,14 +3816,14 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
-    <col min="6" max="6" width="57.69921875" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="57.75" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
@@ -3899,10 +3900,10 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3919,10 +3920,10 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3939,10 +3940,10 @@
         <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3959,10 +3960,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -3979,10 +3980,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -3999,10 +4000,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4019,10 +4020,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4039,10 +4040,10 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4059,10 +4060,10 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4079,10 +4080,10 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H12" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4099,10 +4100,10 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4119,10 +4120,10 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -4194,14 +4195,14 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
-    <col min="6" max="6" width="52.796875" customWidth="1"/>
-    <col min="7" max="7" width="19.59765625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="52.75" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4277,10 +4278,10 @@
         <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4297,10 +4298,10 @@
         <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4317,10 +4318,10 @@
         <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4337,10 +4338,10 @@
         <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4357,10 +4358,10 @@
         <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4374,13 +4375,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4394,13 +4395,13 @@
         <v>46</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4414,13 +4415,13 @@
         <v>13</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4434,13 +4435,13 @@
         <v>13</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4454,13 +4455,13 @@
         <v>46</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4474,13 +4475,13 @@
         <v>46</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4494,13 +4495,13 @@
         <v>46</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -4514,13 +4515,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H15" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -4534,13 +4535,13 @@
         <v>13</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4612,15 +4613,15 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="14.09765625" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="90" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" customWidth="1"/>
-    <col min="8" max="8" width="18.09765625" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4692,13 +4693,13 @@
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4712,13 +4713,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4732,13 +4733,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4752,13 +4753,13 @@
         <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4772,13 +4773,13 @@
         <v>19</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4792,13 +4793,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4812,13 +4813,13 @@
         <v>13</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4832,13 +4833,13 @@
         <v>32</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4852,13 +4853,13 @@
         <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4872,13 +4873,13 @@
         <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4892,13 +4893,13 @@
         <v>19</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4912,13 +4913,13 @@
         <v>46</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -4932,13 +4933,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -4952,13 +4953,13 @@
         <v>13</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4972,13 +4973,13 @@
         <v>46</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H17" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4992,13 +4993,13 @@
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5012,13 +5013,13 @@
         <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="G19" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H19" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5032,13 +5033,13 @@
         <v>19</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H20" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5052,13 +5053,13 @@
         <v>13</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H21" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5072,13 +5073,13 @@
         <v>13</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H22" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5092,13 +5093,13 @@
         <v>13</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5112,13 +5113,13 @@
         <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H24" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5132,13 +5133,13 @@
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5152,13 +5153,13 @@
         <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5219,15 +5220,15 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="76.69921875" customWidth="1"/>
-    <col min="7" max="7" width="19.69921875" customWidth="1"/>
-    <col min="8" max="8" width="17.19921875" customWidth="1"/>
+    <col min="6" max="6" width="76.75" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -5299,10 +5300,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5316,10 +5317,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5333,10 +5334,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -5350,10 +5351,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5367,10 +5368,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5384,10 +5385,10 @@
         <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5401,10 +5402,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5418,10 +5419,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5435,10 +5436,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -5452,10 +5453,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -5469,10 +5470,10 @@
         <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -5489,13 +5490,13 @@
         <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5509,13 +5510,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H15" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -5529,13 +5530,13 @@
         <v>46</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H16" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5549,13 +5550,13 @@
         <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H17" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5569,13 +5570,13 @@
         <v>46</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H18" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5589,13 +5590,13 @@
         <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5609,16 +5610,16 @@
         <v>46</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="26.4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="24.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5629,13 +5630,13 @@
         <v>46</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="G21" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H21" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5649,13 +5650,13 @@
         <v>46</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H22" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5669,13 +5670,13 @@
         <v>46</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5689,13 +5690,13 @@
         <v>13</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H24" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5709,13 +5710,13 @@
         <v>13</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H25" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5729,13 +5730,13 @@
         <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H26" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5749,13 +5750,13 @@
         <v>13</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5769,13 +5770,13 @@
         <v>13</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5792,13 +5793,13 @@
         <v>13</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H29" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5812,13 +5813,13 @@
         <v>46</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H30" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5878,16 +5879,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DD822B-AB3F-4083-911C-110C08E3FDA4}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="55.5" customWidth="1"/>
-    <col min="7" max="7" width="22.3984375" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -5959,10 +5960,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5976,10 +5977,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5993,10 +5994,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6010,13 +6011,13 @@
         <v>46</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -6030,13 +6031,13 @@
         <v>46</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -6050,13 +6051,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="24.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6067,10 +6068,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -6084,10 +6085,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -6101,10 +6102,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -6118,10 +6119,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -6135,10 +6136,10 @@
         <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -6152,16 +6153,16 @@
         <v>46</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="26.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="24.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6172,13 +6173,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G15" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H15" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6192,10 +6193,10 @@
         <v>13</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6209,10 +6210,10 @@
         <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6226,10 +6227,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6243,10 +6244,10 @@
         <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6260,10 +6261,10 @@
         <v>13</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G20" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6277,10 +6278,10 @@
         <v>13</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G21" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6294,13 +6295,13 @@
         <v>46</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="26.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="24.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6311,10 +6312,10 @@
         <v>46</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6328,10 +6329,10 @@
         <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6345,10 +6346,10 @@
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G25" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6362,10 +6363,10 @@
         <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6379,10 +6380,10 @@
         <v>13</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6396,10 +6397,10 @@
         <v>13</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G28" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6413,13 +6414,13 @@
         <v>46</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G29" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H29" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6433,16 +6434,16 @@
         <v>46</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G30" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="24.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -6453,13 +6454,13 @@
         <v>46</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G31" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H31" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6473,13 +6474,13 @@
         <v>46</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H32" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6493,10 +6494,10 @@
         <v>13</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G33" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6510,10 +6511,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G34" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6527,10 +6528,10 @@
         <v>13</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6544,10 +6545,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G36" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6561,10 +6562,10 @@
         <v>13</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G37" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6578,13 +6579,13 @@
         <v>13</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="26.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="24.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -6595,10 +6596,10 @@
         <v>13</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G39" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6658,19 +6659,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1151488-0F44-491C-8515-0B5CDD067839}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="73.5" customWidth="1"/>
-    <col min="7" max="7" width="21.3984375" customWidth="1"/>
-    <col min="8" max="8" width="16.296875" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -6742,10 +6743,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6759,10 +6760,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6776,10 +6777,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6793,10 +6794,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -6810,10 +6811,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -6827,10 +6828,10 @@
         <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -6844,10 +6845,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -6861,10 +6862,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -6878,10 +6879,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G11" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -6895,10 +6896,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -6912,10 +6913,10 @@
         <v>13</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -6929,10 +6930,10 @@
         <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6946,10 +6947,10 @@
         <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6963,10 +6964,10 @@
         <v>13</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6980,10 +6981,10 @@
         <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6997,10 +6998,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -7014,10 +7015,10 @@
         <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7031,10 +7032,10 @@
         <v>13</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7048,10 +7049,10 @@
         <v>13</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7065,10 +7066,10 @@
         <v>13</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7082,10 +7083,10 @@
         <v>13</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7099,10 +7100,10 @@
         <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G24" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7116,10 +7117,10 @@
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7133,13 +7134,13 @@
         <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="24.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7150,10 +7151,10 @@
         <v>13</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7167,10 +7168,10 @@
         <v>13</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7184,10 +7185,10 @@
         <v>13</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G29" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -7201,10 +7202,10 @@
         <v>13</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G30" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7218,10 +7219,10 @@
         <v>13</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G31" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -7235,13 +7236,13 @@
         <v>13</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G32" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H32" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7255,13 +7256,13 @@
         <v>46</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H33" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7275,13 +7276,13 @@
         <v>13</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G34" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H34" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -7295,13 +7296,13 @@
         <v>13</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H35" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7318,13 +7319,13 @@
         <v>46</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G36" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H36" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7341,13 +7342,13 @@
         <v>46</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G37" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H37" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7364,13 +7365,13 @@
         <v>46</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G38" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H38" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7387,13 +7388,13 @@
         <v>46</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="G39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H39" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7410,13 +7411,13 @@
         <v>46</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G40" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H40" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7433,13 +7434,13 @@
         <v>13</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G41" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H41" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7456,13 +7457,13 @@
         <v>46</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G42" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H42" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7479,13 +7480,13 @@
         <v>46</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G43" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H43" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7502,13 +7503,13 @@
         <v>46</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G44" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7525,13 +7526,13 @@
         <v>13</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H45" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7548,13 +7549,13 @@
         <v>13</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H46" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7571,13 +7572,13 @@
         <v>13</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G47" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H47" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7594,13 +7595,13 @@
         <v>13</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G48" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H48" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7617,13 +7618,13 @@
         <v>13</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G49" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H49" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7640,13 +7641,13 @@
         <v>13</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G50" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H50" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7660,13 +7661,13 @@
         <v>13</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G51" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7680,13 +7681,13 @@
         <v>46</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G52" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7700,13 +7701,13 @@
         <v>46</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G53" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H53" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7720,13 +7721,13 @@
         <v>46</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G54" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H54" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7740,16 +7741,16 @@
         <v>46</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G55" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H55" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="92.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="96.95">
       <c r="A56">
         <v>1</v>
       </c>
@@ -7760,13 +7761,13 @@
         <v>46</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G56" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H56" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7780,13 +7781,13 @@
         <v>46</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G57" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H57" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7800,13 +7801,13 @@
         <v>13</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G58" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H58" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7820,13 +7821,13 @@
         <v>46</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G59" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H59" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7840,13 +7841,13 @@
         <v>46</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G60" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H60" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7860,13 +7861,13 @@
         <v>46</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G61" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H61" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7880,13 +7881,13 @@
         <v>46</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G62" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H62" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7900,13 +7901,13 @@
         <v>46</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G63" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H63" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7920,13 +7921,13 @@
         <v>13</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G64" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H64" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7940,13 +7941,13 @@
         <v>13</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G65" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H65" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7960,13 +7961,13 @@
         <v>46</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G66" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H66" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7980,13 +7981,13 @@
         <v>46</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G67" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H67" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -8000,13 +8001,13 @@
         <v>46</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G68" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H68" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -8020,13 +8021,13 @@
         <v>46</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G69" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H69" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -8040,13 +8041,13 @@
         <v>46</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G70" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H70" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -8060,13 +8061,13 @@
         <v>46</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G71" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H71" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -8080,13 +8081,13 @@
         <v>46</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G72" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H72" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -8100,13 +8101,13 @@
         <v>13</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G73" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H73" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -8120,13 +8121,13 @@
         <v>13</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G74" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H74" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -8140,13 +8141,13 @@
         <v>46</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G75" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H75" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -8160,13 +8161,13 @@
         <v>46</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G76" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H76" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8180,13 +8181,13 @@
         <v>46</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G77" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H77" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8200,16 +8201,16 @@
         <v>46</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G78" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H78" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="39.6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="48.5">
       <c r="A79">
         <v>1</v>
       </c>
@@ -8220,13 +8221,13 @@
         <v>46</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G79" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H79" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8240,13 +8241,13 @@
         <v>13</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G80" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H80" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -8260,16 +8261,16 @@
         <v>13</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G81" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H81" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="105.6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="96.95">
       <c r="A82">
         <v>1</v>
       </c>
@@ -8280,13 +8281,13 @@
         <v>46</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G82" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H82" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -8300,13 +8301,13 @@
         <v>13</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G83" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H83" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -8323,10 +8324,10 @@
         <v>13</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G84" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -8340,13 +8341,13 @@
         <v>46</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G85" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H85" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -8360,10 +8361,10 @@
         <v>13</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G86" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:16">

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadi2\OneDrive\문서\카카오톡 받은 파일\스크립트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C129FE9-C471-474E-9121-8FD1FB5893B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29167827-E4B0-4723-B127-14E786351A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" tabRatio="760" activeTab="6" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="4" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
-    <sheet name="S00_11_Bird" sheetId="2" r:id="rId1"/>
-    <sheet name="S01_12_Cat" sheetId="3" r:id="rId2"/>
-    <sheet name="S02_13_Sheep" sheetId="4" r:id="rId3"/>
-    <sheet name="S03_1_After" sheetId="5" r:id="rId4"/>
-    <sheet name="S04_1_Festival" sheetId="6" r:id="rId5"/>
-    <sheet name="S05_2_Home" sheetId="7" r:id="rId6"/>
-    <sheet name="S06_3_Restroom" sheetId="8" r:id="rId7"/>
+    <sheet name="S00_11_Fail" sheetId="9" r:id="rId1"/>
+    <sheet name="S01_12_Bird" sheetId="2" r:id="rId2"/>
+    <sheet name="S02_13_Cat" sheetId="3" r:id="rId3"/>
+    <sheet name="S03_14_Sheep" sheetId="4" r:id="rId4"/>
+    <sheet name="S04_1_After" sheetId="5" r:id="rId5"/>
+    <sheet name="S05_1_Festival" sheetId="6" r:id="rId6"/>
+    <sheet name="S06_2_Home" sheetId="7" r:id="rId7"/>
+    <sheet name="S07_3_Restroom" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="266">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2113,6 +2114,94 @@
   </si>
   <si>
     <t>하지만 잠에 들지 않으면 곤란한걸요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정말...... 부끄럽다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아무것도 못 뽑은 거 정말 실화인가.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 멋쩍은 얼굴로 뒤를 돌아봤고,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(예상대로 모두가 웃음을 참고 있었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…... 기대하지 말라고 했었잖아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내 말을 끝으로, 미나츠는 천천히 웃기 시작했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, {{PLAYER_NAME}}.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 널 과대 평가 했네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 너무 속상해 하지 마.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(안 속상하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그런 나를 보며 아야카와 히나는 한 마디씩 거들었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과대평가 수준이 아니라, 그냥 아주~ 형편 없었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 손으로 하는 건 다 못한다고 하는 거, 그것만은 거짓말이 아니네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아야카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PLAYER_NAME}} 님….... 그, 그래도 새총 쏘는 모습은 멋있었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중해서 하는 모습이…....</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(특히 아야카는 어떤 말을 해야 할지 모른다는 듯 대답했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(….... 그게 더 상처다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에는 제대로 보여줄 거라고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA00}{MI01}{KI00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA01}{MI00}{KI04}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2120,7 +2209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2196,6 +2285,26 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="3" tint="0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2327,7 +2436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2391,11 +2500,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="103">
     <dxf>
       <fill>
         <patternFill>
@@ -2925,6 +3043,179 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2947,9 +3238,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2987,7 +3278,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3093,7 +3384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3235,35 +3526,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2492B5-5286-4C51-A0EE-617DAAF7402C}">
-  <dimension ref="A1:P67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8247A8-D7F3-438B-95A1-19D838F3F847}">
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="47.75" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="15.296875" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3324,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.85" customHeight="1">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3334,17 +3616,20 @@
       <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
+      <c r="F3" s="21" t="s">
+        <v>244</v>
       </c>
       <c r="G3" t="s">
         <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="31.2" customHeight="1">
+        <v>222</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3354,35 +3639,41 @@
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>18</v>
+      <c r="F4" s="21" t="s">
+        <v>245</v>
       </c>
       <c r="G4" t="s">
         <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="25.85" customHeight="1">
+        <v>222</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="G5" t="s">
         <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>217</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
@@ -3392,419 +3683,453 @@
         <v>0</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="G6" t="s">
         <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>217</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="28.2" customHeight="1">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>223</v>
-      </c>
-      <c r="H8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="29.95" customHeight="1">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>24</v>
+      <c r="F9" s="21" t="s">
+        <v>250</v>
       </c>
       <c r="G9" t="s">
         <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>217</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>251</v>
       </c>
       <c r="G10" t="s">
         <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>217</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="G11" t="s">
         <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>217</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>253</v>
       </c>
       <c r="G12" t="s">
         <v>223</v>
       </c>
       <c r="H12" t="s">
-        <v>217</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>254</v>
       </c>
       <c r="G13" t="s">
         <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>217</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" t="s">
+        <v>265</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="G15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" t="s">
+        <v>265</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" t="s">
+        <v>222</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" t="s">
+        <v>222</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="1"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="5:6">
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="5:6">
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="5:6">
-      <c r="E29" s="1"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="5:6">
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="5:6">
-      <c r="E31" s="1"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="5:6">
-      <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="5:6">
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="5:6">
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="5:6">
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="5:6">
-      <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="5:6">
-      <c r="E38" s="1"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="5:6">
-      <c r="E39" s="1"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="5:6">
-      <c r="E40" s="1"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="5:6">
-      <c r="E41" s="1"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="5:6">
-      <c r="E42" s="1"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="5:6">
-      <c r="E43" s="1"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="5:6">
-      <c r="E44" s="1"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="5:6">
-      <c r="E45" s="1"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="5:6">
-      <c r="E46" s="1"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="5:6">
-      <c r="E47" s="1"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="5:6">
-      <c r="E48" s="1"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" s="1"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="5:6">
-      <c r="E50" s="1"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="5:6">
-      <c r="E51" s="1"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="5:6">
-      <c r="E52" s="1"/>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="5:6">
-      <c r="E53" s="1"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="5:6">
-      <c r="E54" s="1"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="5:6">
-      <c r="E55" s="1"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="5:6">
-      <c r="E56" s="1"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="5:6">
-      <c r="E57" s="1"/>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="5:6">
-      <c r="E58" s="1"/>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="5:6">
-      <c r="E59" s="1"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="5:6">
-      <c r="E60" s="1"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="5:6">
-      <c r="E61" s="1"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="5:6">
-      <c r="E62" s="1"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="5:6">
-      <c r="E63" s="1"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="5:6">
-      <c r="E64" s="1"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="5:6">
-      <c r="E65" s="1"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="5:6">
-      <c r="E66" s="1"/>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="5:6">
-      <c r="E67" s="1"/>
-      <c r="F67" s="6"/>
+      <c r="C21">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1 A3:A1048576">
-    <cfRule type="containsText" dxfId="75" priority="14" operator="containsText" text="1">
+  <conditionalFormatting sqref="A1">
+    <cfRule type="containsText" dxfId="102" priority="49" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="48" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="16" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D3:D1048576">
-    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="2">
+  <conditionalFormatting sqref="A3:A21">
+    <cfRule type="containsText" dxfId="100" priority="34" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="33" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="containsText" dxfId="98" priority="45" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="12" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="97" priority="47" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="46" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E67">
-    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="나레이션">
+  <conditionalFormatting sqref="D21">
+    <cfRule type="containsText" dxfId="95" priority="37" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="36" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="35" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E20">
+    <cfRule type="containsText" dxfId="92" priority="13" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="2" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="91" priority="14" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="90" priority="15" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="89" priority="16" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="88" priority="17" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="containsText" dxfId="87" priority="4" operator="containsText" text="MI">
+      <formula>NOT(ISERROR(SEARCH("MI",I8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".",I8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="6" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",I8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="containsText" dxfId="84" priority="2" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="3" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="MI">
+      <formula>NOT(ISERROR(SEARCH("MI",I11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J20">
+    <cfRule type="containsText" dxfId="81" priority="10" operator="containsText" text="SA">
+      <formula>NOT(ISERROR(SEARCH("SA",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="11" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="12" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",J3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K20">
+    <cfRule type="containsText" dxfId="78" priority="8" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".",K3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",K3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="7" operator="containsText" text="KI">
+      <formula>NOT(ISERROR(SEARCH("KI",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3812,18 +4137,591 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2492B5-5286-4C51-A0EE-617DAAF7402C}">
+  <dimension ref="A1:P67"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="47.69921875" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="9" max="9" width="8.09765625" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" customWidth="1"/>
+    <col min="11" max="11" width="12.69921875" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" customWidth="1"/>
+    <col min="13" max="13" width="16.3984375" customWidth="1"/>
+    <col min="14" max="14" width="15.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="25.8" customHeight="1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="31.2" customHeight="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="25.8" customHeight="1">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="28.2" customHeight="1">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="1"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="1"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" s="1"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" s="1"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="5:6">
+      <c r="E31" s="1"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="5:6">
+      <c r="E32" s="1"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38" s="1"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="5:6">
+      <c r="E39" s="1"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="5:6">
+      <c r="E40" s="1"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="5:6">
+      <c r="E41" s="1"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="5:6">
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="5:6">
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="5:6">
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="5:6">
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="5:6">
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="5:6">
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="5:6">
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="5:6">
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="5:6">
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="5:6">
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="5:6">
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="5:6">
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="5:6">
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="5:6">
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="5:6">
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="5:6">
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="5:6">
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="5:6">
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="5:6">
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="5:6">
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="5:6">
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="5:6">
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="5:6">
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="5:6">
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1 A3:A1048576">
+    <cfRule type="containsText" dxfId="75" priority="14" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="16" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1 D3:D1048576">
+    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="12" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E67">
+    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="2" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB6832A-6597-4EBE-A642-50EFC6AE260A}">
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="57.75" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="57.69921875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
@@ -3965,6 +4863,9 @@
       <c r="H6" t="s">
         <v>218</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
@@ -4134,7 +5035,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4183,424 +5084,6 @@
       <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4D3827-FA20-492E-9CAA-498828664590}">
-  <dimension ref="A1:P17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
-  <cols>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="52.75" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8" t="s">
-        <v>223</v>
-      </c>
-      <c r="H8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>223</v>
-      </c>
-      <c r="H11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>223</v>
-      </c>
-      <c r="H12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>223</v>
-      </c>
-      <c r="H15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1 A3:A17">
-    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="14" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E16">
-    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="10" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="12" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4609,19 +5092,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E2E5F-C23B-4F25-A39B-FF9BDCB35635}">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4D3827-FA20-492E-9CAA-498828664590}">
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="90" customWidth="1"/>
-    <col min="7" max="7" width="19.25" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="52.69921875" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4689,17 +5172,17 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>56</v>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4709,17 +5192,17 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>57</v>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="G4" t="s">
         <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4729,17 +5212,17 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>58</v>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4747,19 +5230,19 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4767,19 +5250,22 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>223</v>
       </c>
       <c r="H7" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4793,13 +5279,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="G8" t="s">
         <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4807,19 +5293,19 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
         <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4827,19 +5313,19 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4847,19 +5333,19 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="G11" t="s">
         <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4867,19 +5353,19 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>65</v>
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="G12" t="s">
         <v>223</v>
       </c>
       <c r="H12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4887,19 +5373,19 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="G13" t="s">
         <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4909,17 +5395,17 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>67</v>
+      <c r="F14" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -4929,17 +5415,17 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>68</v>
+      <c r="E15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="G15" t="s">
         <v>223</v>
       </c>
       <c r="H15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -4949,265 +5435,76 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>69</v>
+      <c r="E16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G16" t="s">
         <v>223</v>
       </c>
       <c r="H16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" t="s">
-        <v>223</v>
-      </c>
-      <c r="H18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G19" t="s">
-        <v>223</v>
-      </c>
-      <c r="H19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" t="s">
-        <v>223</v>
-      </c>
-      <c r="H21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" t="s">
-        <v>223</v>
-      </c>
-      <c r="H22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" t="s">
-        <v>223</v>
-      </c>
-      <c r="H23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" t="s">
-        <v>223</v>
-      </c>
-      <c r="H24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" t="s">
-        <v>223</v>
-      </c>
-      <c r="H25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" t="s">
-        <v>223</v>
-      </c>
-      <c r="H26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="1">
+  <conditionalFormatting sqref="A1 A3:A17">
+    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="49" priority="14" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E26">
-    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="나레이션">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E16">
+    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="42" priority="10" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="4" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="40" priority="12" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5216,19 +5513,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57870A9-ECB4-4291-BFAF-986814B662D2}">
-  <dimension ref="A1:P31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E2E5F-C23B-4F25-A39B-FF9BDCB35635}">
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="76.75" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="90" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -5283,10 +5580,22 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5300,10 +5609,13 @@
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>223</v>
+      </c>
+      <c r="H3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5317,10 +5629,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>223</v>
+      </c>
+      <c r="H4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5328,16 +5643,19 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>223</v>
+      </c>
+      <c r="H5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -5345,16 +5663,19 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>223</v>
+      </c>
+      <c r="H6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5364,14 +5685,17 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>83</v>
+      <c r="E7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="G7" t="s">
         <v>223</v>
+      </c>
+      <c r="H7" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5381,14 +5705,17 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>84</v>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="G8" t="s">
         <v>223</v>
+      </c>
+      <c r="H8" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5396,16 +5723,19 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
         <v>223</v>
+      </c>
+      <c r="H9" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5413,16 +5743,19 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
         <v>223</v>
+      </c>
+      <c r="H10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5436,10 +5769,13 @@
         <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
         <v>223</v>
+      </c>
+      <c r="H11" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -5447,16 +5783,19 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
         <v>223</v>
+      </c>
+      <c r="H12" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -5464,25 +5803,25 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
         <v>223</v>
+      </c>
+      <c r="H13" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
       <c r="D14">
         <v>0</v>
       </c>
@@ -5490,13 +5829,13 @@
         <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
         <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5510,13 +5849,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
         <v>223</v>
       </c>
       <c r="H15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -5530,13 +5869,13 @@
         <v>46</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
         <v>223</v>
       </c>
       <c r="H16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5550,13 +5889,13 @@
         <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
         <v>223</v>
       </c>
       <c r="H17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5564,19 +5903,19 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="G18" t="s">
         <v>223</v>
       </c>
       <c r="H18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5584,19 +5923,19 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
         <v>223</v>
       </c>
       <c r="H19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5604,39 +5943,39 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
         <v>223</v>
       </c>
       <c r="H20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="24.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>240</v>
+        <v>13</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="G21" t="s">
         <v>223</v>
       </c>
       <c r="H21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5644,19 +5983,19 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s">
         <v>223</v>
       </c>
       <c r="H22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5664,19 +6003,19 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
         <v>223</v>
       </c>
       <c r="H23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5689,14 +6028,14 @@
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>97</v>
+      <c r="F24" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G24" t="s">
         <v>223</v>
       </c>
       <c r="H24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5709,166 +6048,63 @@
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>98</v>
+      <c r="F25" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="G25" t="s">
         <v>223</v>
       </c>
       <c r="H25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" t="s">
-        <v>223</v>
-      </c>
-      <c r="H26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" t="s">
-        <v>223</v>
-      </c>
-      <c r="H27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" t="s">
-        <v>223</v>
-      </c>
-      <c r="H28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>14</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" t="s">
-        <v>223</v>
-      </c>
-      <c r="H29" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" t="s">
-        <v>223</v>
-      </c>
-      <c r="H30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E30">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
+  <conditionalFormatting sqref="E2:E25">
+    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5876,19 +6112,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DD822B-AB3F-4083-911C-110C08E3FDA4}">
-  <dimension ref="A1:P40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57870A9-ECB4-4291-BFAF-986814B662D2}">
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="55.5" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="76.69921875" customWidth="1"/>
+    <col min="7" max="7" width="19.69921875" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -5960,10 +6196,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5977,10 +6213,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5994,10 +6230,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6005,19 +6241,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -6025,19 +6258,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -6051,13 +6281,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="24.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6068,10 +6298,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -6085,10 +6315,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -6102,10 +6332,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -6119,10 +6349,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -6136,33 +6366,36 @@
         <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
       <c r="D14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="24.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6173,13 +6406,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6187,16 +6420,19 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>230</v>
+        <v>223</v>
+      </c>
+      <c r="H16" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6206,14 +6442,17 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>230</v>
+        <v>223</v>
+      </c>
+      <c r="H17" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6221,16 +6460,19 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>230</v>
+        <v>223</v>
+      </c>
+      <c r="H18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6240,14 +6482,17 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>230</v>
+        <v>223</v>
+      </c>
+      <c r="H19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6255,33 +6500,39 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="H20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="26.4">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>122</v>
+        <v>46</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="G21" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="H21" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6295,13 +6546,16 @@
         <v>46</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="24.25">
+        <v>223</v>
+      </c>
+      <c r="H22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6312,10 +6566,13 @@
         <v>46</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="H23" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6328,11 +6585,14 @@
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>125</v>
+      <c r="F24" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="H24" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6345,11 +6605,14 @@
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>126</v>
+      <c r="F25" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="H25" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6363,10 +6626,13 @@
         <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="H26" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6379,11 +6645,14 @@
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>128</v>
+      <c r="F27" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="H27" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6396,28 +6665,34 @@
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>129</v>
+      <c r="F28" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="H28" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
         <v>1</v>
       </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
       <c r="D29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>130</v>
+        <v>13</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H29" t="s">
         <v>224</v>
@@ -6434,220 +6709,61 @@
         <v>46</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H30" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="24.25">
+    <row r="31" spans="1:8">
       <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" t="s">
-        <v>227</v>
-      </c>
-      <c r="H31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" t="s">
-        <v>227</v>
-      </c>
-      <c r="H32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G34" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G38" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="24.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E39">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="나레이션">
+  <conditionalFormatting sqref="E3:E30">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6656,22 +6772,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1151488-0F44-491C-8515-0B5CDD067839}">
-  <dimension ref="A1:P87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DD822B-AB3F-4083-911C-110C08E3FDA4}">
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="73.5" customWidth="1"/>
-    <col min="7" max="7" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="55.5" customWidth="1"/>
+    <col min="7" max="7" width="22.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -6742,6 +6855,789 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="26.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="26.4">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" t="s">
+        <v>227</v>
+      </c>
+      <c r="H30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" t="s">
+        <v>227</v>
+      </c>
+      <c r="H31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="26.4">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E39">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1151488-0F44-491C-8515-0B5CDD067839}">
+  <dimension ref="A1:P87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="6" max="6" width="73.5" customWidth="1"/>
+    <col min="7" max="7" width="21.3984375" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="16" t="s">
         <v>141</v>
       </c>
@@ -7140,7 +8036,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="24.25">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7750,7 +8646,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="96.95">
+    <row r="56" spans="1:8" ht="92.4">
       <c r="A56">
         <v>1</v>
       </c>
@@ -8210,7 +9106,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="48.5">
+    <row r="79" spans="1:8" ht="39.6">
       <c r="A79">
         <v>1</v>
       </c>
@@ -8270,7 +9166,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="96.95">
+    <row r="82" spans="1:16" ht="105.6">
       <c r="A82">
         <v>1</v>
       </c>

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenu0\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29167827-E4B0-4723-B127-14E786351A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2885EA-1527-416A-AC87-A592C39E8762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="4" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="7" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_11_Fail" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="271">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2202,6 +2202,26 @@
   </si>
   <si>
     <t>{SA01}{MI00}{KI04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{MI00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{MI05}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{MI02}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA06}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{KI01}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3047,13 +3067,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -3064,6 +3077,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -3081,13 +3101,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -3098,6 +3111,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -3152,6 +3172,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3159,6 +3193,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3166,27 +3207,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3194,6 +3214,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3209,13 +3236,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3238,9 +3258,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3278,7 +3298,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3384,7 +3404,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3526,7 +3546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3536,16 +3556,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8247A8-D7F3-438B-95A1-19D838F3F847}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="15.296875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4034,41 +4054,41 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="102" priority="49" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="102" priority="48" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="49" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="48" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A21">
-    <cfRule type="containsText" dxfId="100" priority="34" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="100" priority="33" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="34" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="33" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
     <cfRule type="containsText" dxfId="98" priority="45" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="47" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="97" priority="46" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="47" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="46" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="95" priority="37" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D21)))</formula>
+    <cfRule type="containsText" dxfId="95" priority="35" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="94" priority="36" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="35" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D21)))</formula>
+    <cfRule type="containsText" dxfId="93" priority="37" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E20">
@@ -4100,14 +4120,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="84" priority="2" operator="containsText" text=".">
+    <cfRule type="containsText" dxfId="84" priority="1" operator="containsText" text="MI">
+      <formula>NOT(ISERROR(SEARCH("MI",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="2" operator="containsText" text=".">
       <formula>NOT(ISERROR(SEARCH(".",I11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="3" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",I11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="MI">
-      <formula>NOT(ISERROR(SEARCH("MI",I11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J20">
@@ -4122,14 +4142,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K20">
-    <cfRule type="containsText" dxfId="78" priority="8" operator="containsText" text=".">
+    <cfRule type="containsText" dxfId="78" priority="7" operator="containsText" text="KI">
+      <formula>NOT(ISERROR(SEARCH("KI",K3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text=".">
       <formula>NOT(ISERROR(SEARCH(".",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",K3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="7" operator="containsText" text="KI">
-      <formula>NOT(ISERROR(SEARCH("KI",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4140,25 +4160,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2492B5-5286-4C51-A0EE-617DAAF7402C}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I5"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" customWidth="1"/>
-    <col min="6" max="6" width="47.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="47.75" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
-    <col min="9" max="9" width="8.09765625" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" customWidth="1"/>
-    <col min="11" max="11" width="12.69921875" customWidth="1"/>
-    <col min="12" max="12" width="14.19921875" customWidth="1"/>
-    <col min="13" max="13" width="16.3984375" customWidth="1"/>
-    <col min="14" max="14" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4219,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.8" customHeight="1">
+    <row r="3" spans="1:16" ht="25.9" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4236,10 +4256,10 @@
         <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="31.2" customHeight="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="31.15" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4256,10 +4276,10 @@
         <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="25.8" customHeight="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="25.9" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4276,7 +4296,7 @@
         <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -4299,7 +4319,7 @@
         <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4322,7 +4342,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="28.2" customHeight="1">
+    <row r="8" spans="1:16" ht="28.15" customHeight="1">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4339,7 +4359,7 @@
         <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
@@ -4359,7 +4379,7 @@
         <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4379,7 +4399,7 @@
         <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4399,7 +4419,7 @@
         <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4713,15 +4733,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB6832A-6597-4EBE-A642-50EFC6AE260A}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I6"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
-    <col min="6" max="6" width="57.69921875" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="57.75" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
@@ -4861,7 +4881,7 @@
         <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4884,7 +4904,7 @@
         <v>223</v>
       </c>
       <c r="H7" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4904,7 +4924,7 @@
         <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4924,7 +4944,7 @@
         <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5095,16 +5115,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4D3827-FA20-492E-9CAA-498828664590}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I7"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
-    <col min="6" max="6" width="52.69921875" customWidth="1"/>
-    <col min="7" max="7" width="19.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="52.75" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -5385,7 +5405,7 @@
         <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -5405,7 +5425,7 @@
         <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5516,16 +5536,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E2E5F-C23B-4F25-A39B-FF9BDCB35635}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="14.09765625" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="90" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" customWidth="1"/>
-    <col min="8" max="8" width="18.09765625" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -6115,16 +6135,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57870A9-ECB4-4291-BFAF-986814B662D2}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="76.69921875" customWidth="1"/>
-    <col min="7" max="7" width="19.69921875" customWidth="1"/>
-    <col min="8" max="8" width="17.19921875" customWidth="1"/>
+    <col min="6" max="6" width="76.75" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -6392,7 +6412,7 @@
         <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6412,7 +6432,7 @@
         <v>223</v>
       </c>
       <c r="H15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6432,7 +6452,7 @@
         <v>223</v>
       </c>
       <c r="H16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6452,7 +6472,7 @@
         <v>223</v>
       </c>
       <c r="H17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6472,7 +6492,7 @@
         <v>223</v>
       </c>
       <c r="H18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6512,10 +6532,10 @@
         <v>223</v>
       </c>
       <c r="H20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="26.4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="24">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6532,7 +6552,7 @@
         <v>223</v>
       </c>
       <c r="H21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6552,7 +6572,7 @@
         <v>223</v>
       </c>
       <c r="H22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6572,7 +6592,7 @@
         <v>223</v>
       </c>
       <c r="H23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6592,7 +6612,7 @@
         <v>223</v>
       </c>
       <c r="H24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6715,7 +6735,7 @@
         <v>223</v>
       </c>
       <c r="H30" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6775,16 +6795,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DD822B-AB3F-4083-911C-110C08E3FDA4}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="B15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="55.5" customWidth="1"/>
-    <col min="7" max="7" width="22.3984375" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -6953,7 +6973,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="24">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7058,7 +7078,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="26.4">
+    <row r="15" spans="1:16" ht="24">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7197,7 +7217,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="26.4">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7339,7 +7359,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="24">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7481,7 +7501,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="26.4">
+    <row r="39" spans="1:7" ht="24">
       <c r="A39">
         <v>1</v>
       </c>
@@ -7555,19 +7575,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1151488-0F44-491C-8515-0B5CDD067839}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="B74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="73.5" customWidth="1"/>
-    <col min="7" max="7" width="21.3984375" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -8036,7 +8056,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="24">
       <c r="A27">
         <v>1</v>
       </c>
@@ -8267,7 +8287,7 @@
         <v>231</v>
       </c>
       <c r="H38" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -8290,7 +8310,7 @@
         <v>231</v>
       </c>
       <c r="H39" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -8313,7 +8333,7 @@
         <v>231</v>
       </c>
       <c r="H40" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -8336,7 +8356,7 @@
         <v>231</v>
       </c>
       <c r="H41" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -8359,7 +8379,7 @@
         <v>231</v>
       </c>
       <c r="H42" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -8382,7 +8402,7 @@
         <v>231</v>
       </c>
       <c r="H43" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -8405,7 +8425,7 @@
         <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -8428,7 +8448,7 @@
         <v>231</v>
       </c>
       <c r="H45" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -8451,7 +8471,7 @@
         <v>231</v>
       </c>
       <c r="H46" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -8474,7 +8494,7 @@
         <v>231</v>
       </c>
       <c r="H47" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -8497,7 +8517,7 @@
         <v>231</v>
       </c>
       <c r="H48" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -8520,7 +8540,7 @@
         <v>231</v>
       </c>
       <c r="H49" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -8543,7 +8563,7 @@
         <v>231</v>
       </c>
       <c r="H50" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -8563,7 +8583,7 @@
         <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -8583,7 +8603,7 @@
         <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -8603,7 +8623,7 @@
         <v>231</v>
       </c>
       <c r="H53" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -8623,7 +8643,7 @@
         <v>231</v>
       </c>
       <c r="H54" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -8643,10 +8663,10 @@
         <v>231</v>
       </c>
       <c r="H55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="92.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="96">
       <c r="A56">
         <v>1</v>
       </c>
@@ -8663,7 +8683,7 @@
         <v>231</v>
       </c>
       <c r="H56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -8683,7 +8703,7 @@
         <v>231</v>
       </c>
       <c r="H57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -8703,7 +8723,7 @@
         <v>231</v>
       </c>
       <c r="H58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -8963,7 +8983,7 @@
         <v>231</v>
       </c>
       <c r="H71" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -8983,7 +9003,7 @@
         <v>231</v>
       </c>
       <c r="H72" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -9003,7 +9023,7 @@
         <v>231</v>
       </c>
       <c r="H73" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -9023,7 +9043,7 @@
         <v>231</v>
       </c>
       <c r="H74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -9043,7 +9063,7 @@
         <v>231</v>
       </c>
       <c r="H75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -9063,7 +9083,7 @@
         <v>231</v>
       </c>
       <c r="H76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -9083,7 +9103,7 @@
         <v>231</v>
       </c>
       <c r="H77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -9103,10 +9123,10 @@
         <v>231</v>
       </c>
       <c r="H78" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="39.6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="48">
       <c r="A79">
         <v>1</v>
       </c>
@@ -9123,7 +9143,7 @@
         <v>231</v>
       </c>
       <c r="H79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -9143,7 +9163,7 @@
         <v>231</v>
       </c>
       <c r="H80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -9163,10 +9183,10 @@
         <v>231</v>
       </c>
       <c r="H81" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="105.6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="96">
       <c r="A82">
         <v>1</v>
       </c>
@@ -9203,7 +9223,7 @@
         <v>231</v>
       </c>
       <c r="H83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -9243,7 +9263,7 @@
         <v>231</v>
       </c>
       <c r="H85" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:16">

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenu0\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2885EA-1527-416A-AC87-A592C39E8762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E1EA2C-7F36-492D-9DB1-9324F1866D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="7" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="7" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_11_Fail" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="282">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2223,13 +2223,49 @@
   <si>
     <t>{KI01}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI01</t>
+  </si>
+  <si>
+    <t>SA01</t>
+  </si>
+  <si>
+    <t>SA01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA04</t>
+  </si>
+  <si>
+    <t>KI04</t>
+  </si>
+  <si>
+    <t>KI03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KI01</t>
+  </si>
+  <si>
+    <t>KI05</t>
+  </si>
+  <si>
+    <t>KI06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm</t>
+  </si>
+  <si>
+    <t>effect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2325,6 +2361,31 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF657C9D"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2456,7 +2517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2529,11 +2590,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="109">
     <dxf>
       <fill>
         <patternFill>
@@ -3068,12 +3138,12 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -3085,11 +3155,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="3" tint="0.24994659260841701"/>
       </font>
     </dxf>
@@ -3106,11 +3171,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color theme="3" tint="0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.89996032593768116"/>
@@ -3119,12 +3179,12 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="3" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -3135,6 +3195,64 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="3" tint="0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF657C9D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBEDF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF657C9D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBEDF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
@@ -3144,14 +3262,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3165,7 +3276,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3179,6 +3297,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3193,21 +3318,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3229,13 +3340,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3258,9 +3362,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3298,7 +3402,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3404,7 +3508,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3546,7 +3650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3554,21 +3658,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8247A8-D7F3-438B-95A1-19D838F3F847}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" customWidth="1"/>
+    <col min="10" max="10" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3594,31 +3699,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3626,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3645,11 +3756,12 @@
       <c r="H3" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="I3" s="24"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3668,11 +3780,12 @@
       <c r="H4" t="s">
         <v>222</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="25"/>
       <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3691,11 +3804,12 @@
       <c r="H5" t="s">
         <v>222</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="25"/>
       <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3714,11 +3828,12 @@
       <c r="H6" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="25"/>
       <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3737,11 +3852,12 @@
       <c r="H7" t="s">
         <v>222</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="I7" s="26"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3760,11 +3876,12 @@
       <c r="H8" t="s">
         <v>264</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="25"/>
       <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3783,11 +3900,15 @@
       <c r="H9" t="s">
         <v>264</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="25"/>
+      <c r="J9" t="s">
+        <v>271</v>
+      </c>
       <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3806,11 +3927,12 @@
       <c r="H10" t="s">
         <v>264</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="25"/>
       <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3829,11 +3951,12 @@
       <c r="H11" t="s">
         <v>264</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="25"/>
       <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3852,11 +3975,12 @@
       <c r="H12" t="s">
         <v>222</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="I12" s="24"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3875,11 +3999,12 @@
       <c r="H13" t="s">
         <v>265</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="25"/>
       <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3898,11 +4023,15 @@
       <c r="H14" t="s">
         <v>265</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="25"/>
+      <c r="J14" t="s">
+        <v>273</v>
+      </c>
       <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3921,11 +4050,12 @@
       <c r="H15" t="s">
         <v>265</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="25"/>
       <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3944,11 +4074,15 @@
       <c r="H16" t="s">
         <v>222</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="25"/>
+      <c r="J16" t="s">
+        <v>230</v>
+      </c>
       <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3967,11 +4101,12 @@
       <c r="H17" t="s">
         <v>222</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="25"/>
       <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3990,11 +4125,12 @@
       <c r="H18" t="s">
         <v>222</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="25"/>
       <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4013,11 +4149,12 @@
       <c r="H19" t="s">
         <v>222</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="25"/>
       <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4036,11 +4173,12 @@
       <c r="H20" t="s">
         <v>222</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="I20" s="26"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>0</v>
       </c>
@@ -4054,102 +4192,124 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="102" priority="48" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="108" priority="55" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="54" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="49" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A21">
-    <cfRule type="containsText" dxfId="100" priority="33" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="106" priority="40" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="39" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="34" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="98" priority="45" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="104" priority="51" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="46" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="103" priority="52" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="47" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="102" priority="53" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="95" priority="35" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="101" priority="43" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="42" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="41" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="36" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="37" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E20">
-    <cfRule type="containsText" dxfId="92" priority="13" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="98" priority="20" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="19" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="14" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="15" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="96" priority="23" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="22" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="21" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="16" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="17" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="87" priority="4" operator="containsText" text="MI">
+    <cfRule type="containsText" dxfId="93" priority="4" operator="containsText" text="MI">
       <formula>NOT(ISERROR(SEARCH("MI",I8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text=".">
+    <cfRule type="containsText" dxfId="92" priority="5" operator="containsText" text=".">
       <formula>NOT(ISERROR(SEARCH(".",I8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="6" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="91" priority="6" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH("!",I8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="84" priority="1" operator="containsText" text="MI">
+    <cfRule type="containsText" dxfId="90" priority="3" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="MI">
       <formula>NOT(ISERROR(SEARCH("MI",I11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="2" operator="containsText" text=".">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text=".">
       <formula>NOT(ISERROR(SEARCH(".",I11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="!">
-      <formula>NOT(ISERROR(SEARCH("!",I11)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J20">
-    <cfRule type="containsText" dxfId="81" priority="10" operator="containsText" text="SA">
-      <formula>NOT(ISERROR(SEARCH("SA",J3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="11" operator="containsText" text=".">
-      <formula>NOT(ISERROR(SEARCH(".",J3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="12" operator="containsText" text="!">
-      <formula>NOT(ISERROR(SEARCH("!",J3)))</formula>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="containsText" dxfId="87" priority="12" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="11" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="10" operator="containsText" text="MI">
+      <formula>NOT(ISERROR(SEARCH("MI",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K20">
-    <cfRule type="containsText" dxfId="78" priority="7" operator="containsText" text="KI">
-      <formula>NOT(ISERROR(SEARCH("KI",K3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text=".">
-      <formula>NOT(ISERROR(SEARCH(".",K3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="!">
-      <formula>NOT(ISERROR(SEARCH("!",K3)))</formula>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="84" priority="9" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",K11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="8" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".",K11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="MI">
+      <formula>NOT(ISERROR(SEARCH("MI",K11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L20">
+    <cfRule type="containsText" dxfId="81" priority="18" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",L3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="16" operator="containsText" text="SA">
+      <formula>NOT(ISERROR(SEARCH("SA",L3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="17" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".",L3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M20">
+    <cfRule type="containsText" dxfId="78" priority="13" operator="containsText" text="KI">
+      <formula>NOT(ISERROR(SEARCH("KI",M3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="15" operator="containsText" text="!">
+      <formula>NOT(ISERROR(SEARCH("!",M3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="14" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4158,30 +4318,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2492B5-5286-4C51-A0EE-617DAAF7402C}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="47.75" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="47.69921875" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="8.125" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="9" max="9" width="8.09765625" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="11" max="11" width="8.09765625" customWidth="1"/>
+    <col min="12" max="12" width="13.69921875" customWidth="1"/>
+    <col min="13" max="13" width="12.69921875" customWidth="1"/>
+    <col min="14" max="14" width="14.19921875" customWidth="1"/>
+    <col min="15" max="15" width="16.3984375" customWidth="1"/>
+    <col min="16" max="16" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4207,31 +4369,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4239,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.9" customHeight="1">
+    <row r="3" spans="1:18" ht="25.95" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4259,7 +4427,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="31.15" customHeight="1">
+    <row r="4" spans="1:18" ht="31.2" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4279,7 +4447,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.9" customHeight="1">
+    <row r="5" spans="1:18" ht="25.95" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4298,11 +4466,11 @@
       <c r="H5" t="s">
         <v>267</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4322,7 +4490,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4341,8 +4509,11 @@
       <c r="H7" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="28.15" customHeight="1">
+      <c r="J7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="28.2" customHeight="1">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4362,7 +4533,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1">
+    <row r="9" spans="1:18" ht="30" customHeight="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4382,7 +4553,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4402,7 +4573,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4422,7 +4593,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4442,7 +4613,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4462,7 +4633,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4475,11 +4646,11 @@
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
     </row>
@@ -4731,22 +4902,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB6832A-6597-4EBE-A642-50EFC6AE260A}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="57.75" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="57.69921875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4772,31 +4944,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4804,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4824,7 +5002,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4844,7 +5022,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4864,7 +5042,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4883,11 +5061,14 @@
       <c r="H6" t="s">
         <v>269</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="J6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4907,7 +5088,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4927,7 +5108,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4947,7 +5128,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4967,7 +5148,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4987,7 +5168,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5006,8 +5187,11 @@
       <c r="H12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="J12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5027,7 +5211,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5047,7 +5231,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>0</v>
       </c>
@@ -5113,21 +5297,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4D3827-FA20-492E-9CAA-498828664590}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="52.75" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="52.69921875" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5153,31 +5338,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5185,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5205,7 +5396,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5225,7 +5416,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5245,7 +5436,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5265,7 +5456,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5284,11 +5475,11 @@
       <c r="H7" t="s">
         <v>220</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5308,7 +5499,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5328,7 +5519,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5348,7 +5539,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5368,7 +5559,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5388,7 +5579,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5408,7 +5599,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5428,7 +5619,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5447,8 +5638,11 @@
       <c r="H15" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="J15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5534,21 +5728,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E2E5F-C23B-4F25-A39B-FF9BDCB35635}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="F4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" customWidth="1"/>
     <col min="6" max="6" width="90" customWidth="1"/>
-    <col min="7" max="7" width="19.25" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.09765625" customWidth="1"/>
+    <col min="10" max="10" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5574,31 +5769,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5618,7 +5819,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5638,7 +5839,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5658,7 +5859,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5678,7 +5879,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5698,7 +5899,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5718,7 +5919,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5738,7 +5939,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5758,7 +5959,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5778,7 +5979,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5798,7 +5999,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5818,7 +6019,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5838,7 +6039,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5858,7 +6059,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5878,7 +6079,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5898,7 +6099,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5918,7 +6119,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5938,7 +6139,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5958,7 +6159,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5978,7 +6179,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5998,7 +6199,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6018,7 +6219,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6038,7 +6239,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6058,7 +6259,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6077,8 +6278,11 @@
       <c r="H25" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>0</v>
       </c>
@@ -6133,21 +6337,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57870A9-ECB4-4291-BFAF-986814B662D2}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="76.75" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="76.69921875" customWidth="1"/>
+    <col min="7" max="7" width="19.69921875" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" customWidth="1"/>
+    <col min="10" max="10" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6173,31 +6378,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6205,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6221,8 +6432,11 @@
       <c r="G3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6239,7 +6453,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6256,7 +6470,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6273,7 +6487,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6290,7 +6504,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6307,7 +6521,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6324,7 +6538,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -6341,7 +6555,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6358,7 +6572,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6375,7 +6589,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6392,7 +6606,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6414,8 +6628,11 @@
       <c r="H14" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="J14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6435,7 +6652,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -6454,8 +6671,11 @@
       <c r="H16" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6475,7 +6695,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6495,7 +6715,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6515,7 +6735,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6535,7 +6755,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="24">
+    <row r="21" spans="1:10" ht="26.4">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6555,7 +6775,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6575,7 +6795,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6595,7 +6815,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6615,7 +6835,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6635,7 +6855,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>1</v>
       </c>
@@ -6655,7 +6875,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>1</v>
       </c>
@@ -6675,7 +6895,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6695,7 +6915,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6717,8 +6937,11 @@
       <c r="H29" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6737,8 +6960,11 @@
       <c r="H30" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>0</v>
       </c>
@@ -6793,21 +7019,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DD822B-AB3F-4083-911C-110C08E3FDA4}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView topLeftCell="B15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="55.5" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="22.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6833,31 +7060,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6865,7 +7098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6882,7 +7115,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6899,7 +7132,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6916,7 +7149,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6936,7 +7169,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6956,7 +7189,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6973,7 +7206,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6990,7 +7223,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -7007,7 +7240,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7024,7 +7257,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7041,7 +7274,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7058,7 +7291,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -7078,7 +7311,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24">
+    <row r="15" spans="1:18" ht="26.4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7098,7 +7331,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7115,7 +7348,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1</v>
       </c>
@@ -7132,7 +7365,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
@@ -7149,7 +7382,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>1</v>
       </c>
@@ -7166,7 +7399,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1</v>
       </c>
@@ -7183,7 +7416,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7200,7 +7433,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7217,7 +7450,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:10" ht="26.4">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7234,7 +7467,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>1</v>
       </c>
@@ -7251,7 +7484,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7268,7 +7501,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7285,7 +7518,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7302,7 +7535,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>1</v>
       </c>
@@ -7319,7 +7552,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>1</v>
       </c>
@@ -7338,8 +7571,11 @@
       <c r="H29" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>1</v>
       </c>
@@ -7359,7 +7595,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="24">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7379,7 +7615,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>1</v>
       </c>
@@ -7399,7 +7635,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7416,7 +7652,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>1</v>
       </c>
@@ -7433,7 +7669,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>1</v>
       </c>
@@ -7450,7 +7686,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>1</v>
       </c>
@@ -7467,7 +7703,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>1</v>
       </c>
@@ -7484,7 +7720,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>1</v>
       </c>
@@ -7501,7 +7737,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="24">
+    <row r="39" spans="1:9" ht="26.4">
       <c r="A39">
         <v>1</v>
       </c>
@@ -7517,8 +7753,11 @@
       <c r="G39" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>0</v>
       </c>
@@ -7573,24 +7812,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1151488-0F44-491C-8515-0B5CDD067839}">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
     <col min="6" max="6" width="73.5" customWidth="1"/>
-    <col min="7" max="7" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="21.3984375" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7616,31 +7856,37 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7648,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7665,7 +7911,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7682,7 +7928,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7699,7 +7945,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7716,7 +7962,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7733,7 +7979,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7750,7 +7996,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7767,7 +8013,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1</v>
       </c>
@@ -7784,7 +8030,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7801,7 +8047,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7818,7 +8064,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7835,7 +8081,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1</v>
       </c>
@@ -7852,7 +8098,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7869,7 +8115,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7886,7 +8132,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1</v>
       </c>
@@ -7903,7 +8149,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>1</v>
       </c>
@@ -7919,8 +8165,11 @@
       <c r="G18" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1</v>
       </c>
@@ -7937,7 +8186,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>1</v>
       </c>
@@ -7954,7 +8203,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7971,7 +8220,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7988,7 +8237,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>1</v>
       </c>
@@ -8005,7 +8254,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>1</v>
       </c>
@@ -8022,7 +8271,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>1</v>
       </c>
@@ -8039,7 +8288,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>1</v>
       </c>
@@ -8056,7 +8305,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="24">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>1</v>
       </c>
@@ -8073,7 +8322,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>1</v>
       </c>
@@ -8090,7 +8339,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>1</v>
       </c>
@@ -8107,7 +8356,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>1</v>
       </c>
@@ -8124,7 +8373,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>1</v>
       </c>
@@ -8141,7 +8390,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>1</v>
       </c>
@@ -8161,7 +8410,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>1</v>
       </c>
@@ -8181,7 +8430,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>1</v>
       </c>
@@ -8201,7 +8450,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>1</v>
       </c>
@@ -8220,8 +8469,11 @@
       <c r="H35" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>1</v>
       </c>
@@ -8244,7 +8496,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>1</v>
       </c>
@@ -8267,7 +8519,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>1</v>
       </c>
@@ -8290,7 +8542,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>1</v>
       </c>
@@ -8313,7 +8565,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>1</v>
       </c>
@@ -8336,7 +8588,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>1</v>
       </c>
@@ -8359,7 +8611,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>1</v>
       </c>
@@ -8381,8 +8633,11 @@
       <c r="H42" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="J42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>1</v>
       </c>
@@ -8405,7 +8660,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>1</v>
       </c>
@@ -8428,7 +8683,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>1</v>
       </c>
@@ -8451,7 +8706,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>1</v>
       </c>
@@ -8474,7 +8729,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>1</v>
       </c>
@@ -8497,7 +8752,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>1</v>
       </c>
@@ -8520,7 +8775,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>1</v>
       </c>
@@ -8543,7 +8798,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>1</v>
       </c>
@@ -8566,7 +8821,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>1</v>
       </c>
@@ -8586,7 +8841,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>1</v>
       </c>
@@ -8605,8 +8860,11 @@
       <c r="H52" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="J52" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>1</v>
       </c>
@@ -8626,7 +8884,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>1</v>
       </c>
@@ -8646,7 +8904,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>1</v>
       </c>
@@ -8666,7 +8924,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="96">
+    <row r="56" spans="1:10" ht="92.4">
       <c r="A56">
         <v>1</v>
       </c>
@@ -8686,7 +8944,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>1</v>
       </c>
@@ -8706,7 +8964,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>1</v>
       </c>
@@ -8725,8 +8983,11 @@
       <c r="H58" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="J58" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>1</v>
       </c>
@@ -8745,8 +9006,11 @@
       <c r="H59" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="J59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>1</v>
       </c>
@@ -8766,7 +9030,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>1</v>
       </c>
@@ -8786,7 +9050,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>1</v>
       </c>
@@ -8806,7 +9070,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>1</v>
       </c>
@@ -8826,7 +9090,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>1</v>
       </c>
@@ -8846,7 +9110,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>1</v>
       </c>
@@ -8865,8 +9129,11 @@
       <c r="H65" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="J65" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>1</v>
       </c>
@@ -8886,7 +9153,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>1</v>
       </c>
@@ -8906,7 +9173,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>1</v>
       </c>
@@ -8926,7 +9193,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>1</v>
       </c>
@@ -8946,7 +9213,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>1</v>
       </c>
@@ -8966,7 +9233,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>1</v>
       </c>
@@ -8986,7 +9253,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>1</v>
       </c>
@@ -9006,7 +9273,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>1</v>
       </c>
@@ -9026,7 +9293,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>1</v>
       </c>
@@ -9045,8 +9312,11 @@
       <c r="H74" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="J74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>1</v>
       </c>
@@ -9065,8 +9335,11 @@
       <c r="H75" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="J75" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>1</v>
       </c>
@@ -9086,7 +9359,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>1</v>
       </c>
@@ -9106,7 +9379,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>1</v>
       </c>
@@ -9126,7 +9399,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="48">
+    <row r="79" spans="1:10" ht="39.6">
       <c r="A79">
         <v>1</v>
       </c>
@@ -9146,7 +9419,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>1</v>
       </c>
@@ -9165,8 +9438,11 @@
       <c r="H80" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="J80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>1</v>
       </c>
@@ -9185,8 +9461,11 @@
       <c r="H81" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" ht="96">
+      <c r="J81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="105.6">
       <c r="A82">
         <v>1</v>
       </c>
@@ -9206,7 +9485,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>1</v>
       </c>
@@ -9226,7 +9505,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>1</v>
       </c>
@@ -9246,7 +9525,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>1</v>
       </c>
@@ -9266,7 +9545,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>1</v>
       </c>
@@ -9282,12 +9561,15 @@
       <c r="G86" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="I86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>2</v>
       </c>
-      <c r="P87">
+      <c r="R87">
         <v>4</v>
       </c>
     </row>

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3At.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadi2\OneDrive\문서\카카오톡 받은 파일\사운드 다이얼로그\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E1EA2C-7F36-492D-9DB1-9324F1866D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B7BFDA-7E18-4A05-8449-EFA4B54C9FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="7" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" tabRatio="760" activeTab="7" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_11_Fail" sheetId="9" r:id="rId1"/>
@@ -3362,9 +3362,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3402,7 +3402,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3508,7 +3508,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3650,7 +3650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3660,17 +3660,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8247A8-D7F3-438B-95A1-19D838F3F847}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" customWidth="1"/>
-    <col min="10" max="10" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -4321,26 +4321,26 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" customWidth="1"/>
-    <col min="6" max="6" width="47.69921875" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="47.75" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
-    <col min="9" max="9" width="8.09765625" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" customWidth="1"/>
-    <col min="11" max="11" width="8.09765625" customWidth="1"/>
-    <col min="12" max="12" width="13.69921875" customWidth="1"/>
-    <col min="13" max="13" width="12.69921875" customWidth="1"/>
-    <col min="14" max="14" width="14.19921875" customWidth="1"/>
-    <col min="15" max="15" width="16.3984375" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="25.95" customHeight="1">
+    <row r="3" spans="1:18" ht="26.05" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="25.95" customHeight="1">
+    <row r="5" spans="1:18" ht="26.05" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30" customHeight="1">
+    <row r="9" spans="1:18" ht="29.95" customHeight="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4908,11 +4908,11 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
-    <col min="6" max="6" width="57.69921875" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="57.75" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
@@ -5303,13 +5303,13 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
-    <col min="6" max="6" width="52.69921875" customWidth="1"/>
-    <col min="7" max="7" width="19.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="52.75" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -5734,13 +5734,13 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="14.09765625" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="90" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" customWidth="1"/>
-    <col min="8" max="8" width="18.09765625" customWidth="1"/>
-    <col min="10" max="10" width="18.09765625" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -6343,13 +6343,13 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="76.69921875" customWidth="1"/>
-    <col min="7" max="7" width="19.69921875" customWidth="1"/>
-    <col min="8" max="8" width="17.19921875" customWidth="1"/>
-    <col min="10" max="10" width="17.19921875" customWidth="1"/>
+    <col min="6" max="6" width="76.75" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -6755,7 +6755,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="26.4">
+    <row r="21" spans="1:10" ht="24.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7025,13 +7025,13 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="55.5" customWidth="1"/>
-    <col min="7" max="7" width="22.3984375" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -7206,7 +7206,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" ht="24.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="26.4">
+    <row r="15" spans="1:18" ht="24.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="26.4">
+    <row r="23" spans="1:10" ht="24.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="24.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="26.4">
+    <row r="39" spans="1:9" ht="24.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -7815,19 +7815,19 @@
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="73.5" customWidth="1"/>
-    <col min="7" max="7" width="21.3984375" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" customWidth="1"/>
-    <col min="10" max="10" width="16.19921875" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -8305,7 +8305,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" ht="24.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="92.4">
+    <row r="56" spans="1:10" ht="96.95">
       <c r="A56">
         <v>1</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="39.6">
+    <row r="79" spans="1:10" ht="48.5">
       <c r="A79">
         <v>1</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="105.6">
+    <row r="82" spans="1:18" ht="96.95">
       <c r="A82">
         <v>1</v>
       </c>
